--- a/rnaSample/rnaSample_2496.xlsx
+++ b/rnaSample/rnaSample_2496.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,12 +98,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +158,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,7 +182,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G54"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -196,7 +190,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/rnaSample/rnaSample_2496.xlsx
+++ b/rnaSample/rnaSample_2496.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="14">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">05.11.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
     <t xml:space="preserve">Retrofitted_2496</t>
@@ -182,7 +185,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -230,13 +233,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,13 +256,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,13 +279,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,13 +302,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,13 +325,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,13 +348,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,13 +371,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,13 +394,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,13 +417,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,13 +440,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,18 +463,18 @@
         <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
@@ -480,21 +483,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
@@ -503,21 +506,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>9</v>
@@ -526,21 +529,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>9</v>
@@ -549,21 +552,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>9</v>
@@ -572,21 +575,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>9</v>
@@ -595,21 +598,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>9</v>
@@ -618,21 +621,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>9</v>
@@ -641,21 +644,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>9</v>
@@ -664,21 +667,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>9</v>
@@ -687,21 +690,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>9</v>
@@ -710,21 +713,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>9</v>
@@ -733,21 +736,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>9</v>
@@ -756,21 +759,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>9</v>
@@ -779,21 +782,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>9</v>
@@ -802,21 +805,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>9</v>
@@ -825,21 +828,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>9</v>
@@ -848,21 +851,21 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>9</v>
@@ -871,21 +874,21 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>9</v>
@@ -894,21 +897,21 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
@@ -917,21 +920,21 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>9</v>
@@ -940,21 +943,21 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>9</v>
@@ -963,21 +966,21 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>9</v>
@@ -986,21 +989,21 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>9</v>
@@ -1009,21 +1012,21 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>9</v>
@@ -1032,21 +1035,21 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>9</v>
@@ -1055,21 +1058,21 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>9</v>
@@ -1078,21 +1081,21 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>9</v>
@@ -1101,21 +1104,21 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>9</v>
@@ -1124,21 +1127,21 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>9</v>
@@ -1147,21 +1150,21 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>9</v>
@@ -1170,21 +1173,21 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
@@ -1193,21 +1196,21 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>9</v>
@@ -1216,21 +1219,21 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>9</v>
@@ -1239,21 +1242,21 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>9</v>
@@ -1262,21 +1265,21 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>9</v>
@@ -1285,21 +1288,21 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>9</v>
@@ -1308,21 +1311,21 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>48</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>9</v>
@@ -1331,21 +1334,21 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>9</v>
@@ -1354,21 +1357,21 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>9</v>
@@ -1377,21 +1380,21 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>9</v>
@@ -1400,21 +1403,21 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>9</v>
@@ -1423,16 +1426,16 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
